--- a/sht_2025-07-30.xlsx
+++ b/sht_2025-07-30.xlsx
@@ -135,13 +135,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -162,19 +162,138 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1915646</v>
+        <v>1830170</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>108463</v>
+        <v>279990</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3.5</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1832116</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>110000</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1835978</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1361545</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1838448</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>29490</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1842685</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>360390</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>1845646</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1255493</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1851704</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>310206</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1854975</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>334514</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/sht_2025-07-30.xlsx
+++ b/sht_2025-07-30.xlsx
@@ -41,8 +41,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -109,12 +110,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -135,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -167,15 +172,18 @@
       <c r="B2" s="0" t="n">
         <v>279990</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="C2" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -184,15 +192,18 @@
       <c r="B3" s="0" t="n">
         <v>110000</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -201,15 +212,18 @@
       <c r="B4" s="0" t="n">
         <v>1361545</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="C4" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -218,15 +232,18 @@
       <c r="B5" s="0" t="n">
         <v>29490</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="2" t="n">
         <v>-3</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>7</v>
       </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -235,15 +252,18 @@
       <c r="B6" s="0" t="n">
         <v>360390</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="C6" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -252,15 +272,18 @@
       <c r="B7" s="0" t="n">
         <v>1255493</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="C7" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -269,15 +292,18 @@
       <c r="B8" s="0" t="n">
         <v>310206</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="C8" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -286,15 +312,18 @@
       <c r="B9" s="0" t="n">
         <v>334514</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>-10</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="C9" s="2" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
